--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwgh\OneDrive - Lovely Professional University\Desktop\git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AD27E2-12B3-442D-8F69-19C7DAC0E30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94817227-8E88-4785-BB65-25296173350F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>name</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>marks</t>
+  </si>
+  <si>
+    <t>17.01.2023</t>
+  </si>
+  <si>
+    <t>animesh</t>
   </si>
 </sst>
 </file>
@@ -354,13 +360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -374,6 +383,20 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>11903879</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
